--- a/giovinazzo-solidale-latest.xlsx
+++ b/giovinazzo-solidale-latest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE4826-60B3-8B43-A396-57F9F658A8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB8FE0-AA94-F041-B942-B6ACBCBAA637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="460" windowWidth="30920" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,8 +1058,8 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
